--- a/Resultados/Mercado mundial - Arándanos.xlsx
+++ b/Resultados/Mercado mundial - Arándanos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="United States of America" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Peru" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Canada" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Chile" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Mexico" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perú" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Canadá" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chile" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,18 +488,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Producción (Miles de Toneladas)</a:t>
+              <a:t>Producción (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -557,7 +557,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Peru'!$B$12:$B$73</f>
+              <f>'Perú'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Peru'!$C$12:$C$73</f>
+              <f>'Perú'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Canada'!$B$12:$B$73</f>
+              <f>'Canadá'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Canada'!$C$12:$C$73</f>
+              <f>'Canadá'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Chile'!$B$12:$B$73</f>
+              <f>'Chile'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chile'!$C$12:$C$73</f>
+              <f>'Chile'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>186413</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.5482</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1220665.49</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.5482</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>470666.69</v>
@@ -2160,10 +2160,10 @@
         <v>185882</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>7.0166</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1304253.79</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>7.0166</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>538853.8199999999</v>
@@ -2182,10 +2182,10 @@
         <v>181723</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.583399999999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1196360.16</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.583399999999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>486780.55</v>
@@ -2204,10 +2204,10 @@
         <v>162103</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6.4167</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1040172.67</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6.4167</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>428927.5</v>
@@ -2226,10 +2226,10 @@
         <v>156201</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6.639600000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1037118.86</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6.639600000000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>415445.22</v>
@@ -2248,10 +2248,10 @@
         <v>135766</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6.0673</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>823732.9</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6.0673</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>321034.68</v>
@@ -2270,10 +2270,10 @@
         <v>123165</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5.853</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>720884.71</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5.853</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>267617.16</v>
@@ -2292,10 +2292,10 @@
         <v>121191</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.2105</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>752662.85</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6.2105</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>251209.26</v>
@@ -2314,10 +2314,10 @@
         <v>111813</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5.7707</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>645239.84</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5.7707</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>207838.07</v>
@@ -2336,10 +2336,10 @@
         <v>109933</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5.7202</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>628846.17</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5.7202</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>190434.92</v>
@@ -2358,10 +2358,10 @@
         <v>104644</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.0297</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>526324.15</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5.0297</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>156914</v>
@@ -2380,10 +2380,10 @@
         <v>97519</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.0284</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>490370.21</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.0284</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>136696</v>
@@ -2402,10 +2402,10 @@
         <v>90843</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4.8914</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>444345.57</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4.8914</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>127353</v>
@@ -2424,10 +2424,10 @@
         <v>84721</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.5843</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>388388.29</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4.5843</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>113178</v>
@@ -2446,10 +2446,10 @@
         <v>80349</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4.7731</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>383517.9</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4.7731</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>97379</v>
@@ -2468,10 +2468,10 @@
         <v>81684</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4.3295</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>353653.57</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4.3295</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>88600</v>
@@ -2490,10 +2490,10 @@
         <v>76255</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3.8249</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>291665.45</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3.8249</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>70307</v>
@@ -2512,10 +2512,10 @@
         <v>73901</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3.8789</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>286653.57</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3.8789</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>68687</v>
@@ -2534,10 +2534,10 @@
         <v>68221</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>3.7658</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>256906.12</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>3.7658</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>61798</v>
@@ -2556,10 +2556,10 @@
         <v>59883</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3.9821</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>238455.14</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3.9821</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>56253</v>
@@ -2578,10 +2578,10 @@
         <v>58488</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3.7354</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>218475.6</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>3.7354</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>54758</v>
@@ -2600,10 +2600,10 @@
         <v>56009</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>3.6141</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>202423.22</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3.6141</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>49224</v>
@@ -2622,10 +2622,10 @@
         <v>53727</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.315300000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>231847.59</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.315300000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>53232</v>
@@ -2644,10 +2644,10 @@
         <v>54859</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3.8521</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>211325.51</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3.8521</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>47458.14</v>
@@ -2666,10 +2666,10 @@
         <v>52026</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3.9517</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>205592.16</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3.9517</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>32758</v>
@@ -2688,10 +2688,10 @@
         <v>49349</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3.2099</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>158406.26</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3.2099</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>22876</v>
@@ -2710,10 +2710,10 @@
         <v>48737</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3.5768</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>174324.66</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3.5768</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>19642</v>
@@ -2732,10 +2732,10 @@
         <v>46245</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3.4278</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>158520.49</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3.4278</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17477</v>
@@ -2754,10 +2754,10 @@
         <v>44083</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.5615</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>157000.18</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.5615</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>17235</v>
@@ -2776,10 +2776,10 @@
         <v>41754</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3.2118</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>134105.35</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3.2118</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>21216</v>
@@ -2798,10 +2798,10 @@
         <v>41842</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.4279</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>143428.62</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.4279</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>21029</v>
@@ -2820,10 +2820,10 @@
         <v>39799</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.8819</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>114694.89</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.8819</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>20097</v>
@@ -2842,10 +2842,10 @@
         <v>50231</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.4891</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>125031.56</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.4891</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>17186</v>
@@ -2864,10 +2864,10 @@
         <v>43459</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3.0647</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>133187.56</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3.0647</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>15426</v>
@@ -2886,10 +2886,10 @@
         <v>41218</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.7389</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>112893</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.7389</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>11487</v>
@@ -2908,10 +2908,10 @@
         <v>35899</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.2039</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>115016</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.2039</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>18652</v>
@@ -2930,10 +2930,10 @@
         <v>37133</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.9879</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>110949</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.9879</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>14734</v>
@@ -2952,10 +2952,10 @@
         <v>33306</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.9759</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>99115</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.9759</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>13149</v>
@@ -2974,10 +2974,10 @@
         <v>34746</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.9709</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>103226</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.9709</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>12715</v>
@@ -2996,10 +2996,10 @@
         <v>31416</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.7122</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>85206</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.7122</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>12367</v>
@@ -3018,10 +3018,10 @@
         <v>33937</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.8892</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>98050</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.8892</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>11942</v>
@@ -3040,10 +3040,10 @@
         <v>32250</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.8817</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>92935</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.8817</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>11604</v>
@@ -3062,10 +3062,10 @@
         <v>26484</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.2212</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>85310</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3.2212</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>6557</v>
@@ -3084,10 +3084,10 @@
         <v>24460</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3.0159</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>73769</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3.0159</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>5723</v>
@@ -3106,10 +3106,10 @@
         <v>23564</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3.0253</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>71287</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3.0253</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>8586</v>
@@ -3128,10 +3128,10 @@
         <v>23578</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.7747</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>65422</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.7747</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>7444</v>
@@ -3150,10 +3150,10 @@
         <v>19758</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.8754</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>56813</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.8754</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>9482</v>
@@ -3172,10 +3172,10 @@
         <v>23955</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.7061</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>64825</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.7061</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>9230</v>
@@ -3194,10 +3194,10 @@
         <v>22742</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.7352</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>62205</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.7352</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>8976</v>
@@ -3216,10 +3216,10 @@
         <v>22652</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.7443</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>62164</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.7443</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>6631</v>
@@ -3238,10 +3238,10 @@
         <v>28032</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.7112</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>76000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.7112</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>9010</v>
@@ -3260,10 +3260,10 @@
         <v>21602</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.5673</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>55459</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.5673</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>7286</v>
@@ -3282,10 +3282,10 @@
         <v>23700</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.5956</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>61515</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.5956</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>7628</v>
@@ -3304,10 +3304,10 @@
         <v>20920</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.9039</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>60749</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.9039</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>7903</v>
@@ -3326,10 +3326,10 @@
         <v>21050</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>62328</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.961</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>7245</v>
@@ -3348,10 +3348,10 @@
         <v>6173</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5.7314</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>35380</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5.7314</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>8516</v>
@@ -3370,10 +3370,10 @@
         <v>8163</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5.0722</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>41404</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5.0722</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>10980</v>
@@ -3391,10 +3391,10 @@
         <v>9363</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5.1658</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>48367</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5.1658</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>17059</v>
@@ -3412,10 +3412,10 @@
         <v>3094</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10.8003</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>33416</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10.8003</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>12783</v>
@@ -3433,10 +3433,10 @@
         <v>3511</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10.9285</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>38370</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10.9285</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>12408</v>
@@ -3454,10 +3454,10 @@
         <v>4147</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.7415</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>36251</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.7415</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>10918</v>
@@ -3475,10 +3475,10 @@
         <v>2969</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10.1206</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>30048</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10.1206</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>9064</v>
@@ -3496,10 +3496,10 @@
         <v>3023</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.608</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>35091</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.608</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>10040</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>51315</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.5022</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>333660</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.5022</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>253384.65</v>
@@ -5033,10 +5033,10 @@
         <v>52286</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.7293</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>351850</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.7293</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>297981.28</v>
@@ -5055,10 +5055,10 @@
         <v>55119</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.865</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>378390</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.865</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>259209.62</v>
@@ -5077,10 +5077,10 @@
         <v>47308</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6.6695</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>315520</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6.6695</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>219048.52</v>
@@ -5099,10 +5099,10 @@
         <v>47591</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7.1911</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>342230</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7.1911</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>214151.41</v>
@@ -5121,10 +5121,10 @@
         <v>39100</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6.523</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>255050</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6.523</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>179056.41</v>
@@ -5143,10 +5143,10 @@
         <v>33950</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.928100000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>235210</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.928100000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>145208.67</v>
@@ -5165,10 +5165,10 @@
         <v>37555</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7.1697</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>269257</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7.1697</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>148910.93</v>
@@ -5187,10 +5187,10 @@
         <v>36349</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.9881</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>254012</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.9881</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>122571.53</v>
@@ -5209,10 +5209,10 @@
         <v>34297</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7.6537</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>262498</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>7.6537</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>106423.31</v>
@@ -5231,10 +5231,10 @@
         <v>32796</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>246559</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7.518</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>103502</v>
@@ -5253,10 +5253,10 @@
         <v>30919</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6.862100000000001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>212168</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6.862100000000001</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>96367</v>
@@ -5275,10 +5275,10 @@
         <v>29660</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.7778</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>201030</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.7778</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>87336</v>
@@ -5297,10 +5297,10 @@
         <v>28530</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>188926</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6.622</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>76743</v>
@@ -5319,10 +5319,10 @@
         <v>26010</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6.4994</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>169050</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6.4994</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>60450</v>
@@ -5341,10 +5341,10 @@
         <v>24480</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6.464899999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>158260</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6.464899999999999</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>52111</v>
@@ -5363,10 +5363,10 @@
         <v>21619</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6.0266</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>130290</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6.0266</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>35125</v>
@@ -5385,10 +5385,10 @@
         <v>22030</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.8488</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>128850</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.8488</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>32602</v>
@@ -5407,10 +5407,10 @@
         <v>19820</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.4627</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>108270</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.4627</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>26319</v>
@@ -5429,10 +5429,10 @@
         <v>18150</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.7218</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>103850</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.7218</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>28878</v>
@@ -5451,10 +5451,10 @@
         <v>17030</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5.0511</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>86020</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5.0511</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>23209</v>
@@ -5473,10 +5473,10 @@
         <v>16936</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5.1417</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>87080</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5.1417</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>21104</v>
@@ -5495,10 +5495,10 @@
         <v>16360</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>5.3454</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>87450</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>5.3454</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>22387</v>
@@ -5517,10 +5517,10 @@
         <v>16520</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5.1253</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>84670</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5.1253</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>16583.9</v>
@@ -5539,10 +5539,10 @@
         <v>16040</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5.0474</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>80960</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5.0474</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>14500</v>
@@ -5561,10 +5561,10 @@
         <v>15780</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4.3916</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>69300</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4.3916</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>8733</v>
@@ -5583,10 +5583,10 @@
         <v>15650</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4.9272</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>77110</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4.9272</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>7831</v>
@@ -5605,10 +5605,10 @@
         <v>15280</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3.8436</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>58730</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3.8436</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8061</v>
@@ -5627,10 +5627,10 @@
         <v>15390</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>4.8083</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>74000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>4.8083</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8830</v>
@@ -5649,10 +5649,10 @@
         <v>15000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4.252</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>63780</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4.252</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>8679</v>
@@ -5671,10 +5671,10 @@
         <v>14770</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.228800000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>77230</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5.228800000000001</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>7951</v>
@@ -5693,10 +5693,10 @@
         <v>13620</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.7665</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>51300</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.7665</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>9262</v>
@@ -5715,10 +5715,10 @@
         <v>24800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.8177</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>69880</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.8177</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9450</v>
@@ -5737,10 +5737,10 @@
         <v>26400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>79940</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3.028</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>7641</v>
@@ -5759,10 +5759,10 @@
         <v>22300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3.1411</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>70047</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3.1411</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6251</v>
@@ -5781,10 +5781,10 @@
         <v>21600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.2013</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>69148</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.2013</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>11640</v>
@@ -5803,10 +5803,10 @@
         <v>22200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3.0114</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>66854</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3.0114</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>7669</v>
@@ -5825,10 +5825,10 @@
         <v>22100</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.1112</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>68758</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.1112</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4799</v>
@@ -5847,10 +5847,10 @@
         <v>22400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>67289</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3.004</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>5385</v>
@@ -5869,10 +5869,10 @@
         <v>21000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.5931</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>54456</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.5931</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>4076</v>
@@ -5891,10 +5891,10 @@
         <v>21700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.8093</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>60962</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.8093</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3809</v>
@@ -5913,10 +5913,10 @@
         <v>19700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.802</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>55200</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.802</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4195</v>
@@ -5935,10 +5935,10 @@
         <v>15980</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.321</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>53069</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3.321</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>2072</v>
@@ -5957,10 +5957,10 @@
         <v>14830</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3.1275</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>46381</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3.1275</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2004</v>
@@ -5979,10 +5979,10 @@
         <v>14850</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2.8213</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>41896</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2.8213</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>3016</v>
@@ -6001,10 +6001,10 @@
         <v>14670</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.5442</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>37324</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.5442</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>3205</v>
@@ -6023,10 +6023,10 @@
         <v>10900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>27326</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.507</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2943</v>
@@ -6045,10 +6045,10 @@
         <v>16300</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.4951</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>40670</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.4951</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1600</v>
@@ -6067,10 +6067,10 @@
         <v>14000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.5083</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>35116</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.5083</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2341</v>
@@ -6089,10 +6089,10 @@
         <v>16000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.5272</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>40435</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.5272</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1465</v>
@@ -6111,10 +6111,10 @@
         <v>18700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.4048</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>44969</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.4048</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>2531</v>
@@ -6133,10 +6133,10 @@
         <v>14000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>30744</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.196</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1735</v>
@@ -6155,10 +6155,10 @@
         <v>17000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>39627</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.331</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1776</v>
@@ -6177,10 +6177,10 @@
         <v>13300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.2602</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>30060</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.2602</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2218</v>
@@ -6199,10 +6199,10 @@
         <v>13300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.392</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>31814</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.392</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1900</v>
@@ -6221,10 +6221,10 @@
         <v>263</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6.4639</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1700</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6.4639</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1251</v>
@@ -6243,10 +6243,10 @@
         <v>263</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6.4639</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1700</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6.4639</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3870</v>
@@ -6264,10 +6264,10 @@
         <v>263</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6.4639</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1700</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6.4639</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>6881</v>
@@ -6285,10 +6285,10 @@
         <v>254</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.6378</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1686</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.6378</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2632</v>
@@ -6306,10 +6306,10 @@
         <v>251</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6.055800000000001</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1520</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6.055800000000001</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3320</v>
@@ -6326,11 +6326,11 @@
       <c r="C72" s="29" t="n">
         <v>247</v>
       </c>
-      <c r="D72" s="28" t="n">
+      <c r="D72" s="29" t="n">
+        <v>7.8421</v>
+      </c>
+      <c r="E72" s="28" t="n">
         <v>1937</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7.8421</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>4455</v>
@@ -6348,10 +6348,10 @@
         <v>219</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.1507</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1347</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.1507</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>2189</v>
@@ -6369,10 +6369,10 @@
         <v>223</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.1525</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1372</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.1525</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2068</v>
@@ -6708,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,14 +6787,15 @@
         <v>17103</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>13.4125</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>229390</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>13.4125</v>
-      </c>
       <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="G12" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -6805,14 +6806,15 @@
         <v>21814</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13.4125</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>292584</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>13.4125</v>
-      </c>
       <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="G13" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -6823,14 +6825,15 @@
         <v>17011</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>13.4125</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>228160</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>13.4125</v>
-      </c>
       <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="G14" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -6841,16 +6844,17 @@
         <v>13369</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>13.4125</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>179305</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>13.4125</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
+      <c r="F15" s="29" t="n">
+        <v>162174.36</v>
+      </c>
       <c r="G15" s="29" t="n">
-        <v>162174.36</v>
-      </c>
-      <c r="H15" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -6861,16 +6865,17 @@
         <v>11027</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>13.4125</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>147900</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>13.4125</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
+      <c r="F16" s="29" t="n">
+        <v>125055.83</v>
+      </c>
       <c r="G16" s="29" t="n">
-        <v>125055.83</v>
-      </c>
-      <c r="H16" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -6881,16 +6886,17 @@
         <v>6011</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>15.7719</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>94805</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>15.7719</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
+      <c r="F17" s="29" t="n">
+        <v>74003.13</v>
+      </c>
       <c r="G17" s="29" t="n">
-        <v>74003.13</v>
-      </c>
-      <c r="H17" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -6901,16 +6907,17 @@
         <v>4134</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>12.6514</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>52301</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>12.6514</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
+      <c r="F18" s="29" t="n">
+        <v>43038.97</v>
+      </c>
       <c r="G18" s="29" t="n">
-        <v>43038.97</v>
-      </c>
-      <c r="H18" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -6921,16 +6928,17 @@
         <v>1945</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>11.814</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>22978.29</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>11.814</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
+      <c r="F19" s="29" t="n">
+        <v>54479.68</v>
+      </c>
       <c r="G19" s="29" t="n">
-        <v>54479.68</v>
-      </c>
-      <c r="H19" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -6941,16 +6949,17 @@
         <v>1158</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>9.140799999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10585</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>9.140799999999999</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
+      <c r="F20" s="29" t="n">
+        <v>10209.96</v>
+      </c>
       <c r="G20" s="29" t="n">
-        <v>10209.96</v>
-      </c>
-      <c r="H20" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -6961,16 +6970,17 @@
         <v>300</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.333299999999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2500</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>8.333299999999999</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
+      <c r="F21" s="29" t="n">
+        <v>2899.2</v>
+      </c>
       <c r="G21" s="29" t="n">
-        <v>2899.2</v>
-      </c>
-      <c r="H21" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -6981,16 +6991,17 @@
         <v>650</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.5662</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1668</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>2.5662</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
+      <c r="F22" s="29" t="n">
+        <v>1499</v>
+      </c>
       <c r="G22" s="29" t="n">
-        <v>1499</v>
-      </c>
-      <c r="H22" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -7001,14 +7012,15 @@
         <v>400</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>560</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>1.4</v>
-      </c>
       <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="G23" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -7019,14 +7031,15 @@
         <v>280</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>320</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>1.1429</v>
-      </c>
       <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="G24" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -7037,14 +7050,15 @@
         <v>32</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>0.9375</v>
-      </c>
       <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="G25" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -7055,8 +7069,9 @@
       <c r="D26" s="29" t="inlineStr"/>
       <c r="E26" s="29" t="inlineStr"/>
       <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="G26" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -7067,8 +7082,9 @@
       <c r="D27" s="29" t="inlineStr"/>
       <c r="E27" s="29" t="inlineStr"/>
       <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="G27" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -7079,8 +7095,9 @@
       <c r="D28" s="29" t="inlineStr"/>
       <c r="E28" s="29" t="inlineStr"/>
       <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="G28" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -7091,8 +7108,9 @@
       <c r="D29" s="29" t="inlineStr"/>
       <c r="E29" s="29" t="inlineStr"/>
       <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="G29" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -7103,8 +7121,9 @@
       <c r="D30" s="29" t="inlineStr"/>
       <c r="E30" s="29" t="inlineStr"/>
       <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="G30" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -7115,8 +7134,9 @@
       <c r="D31" s="29" t="inlineStr"/>
       <c r="E31" s="29" t="inlineStr"/>
       <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="G31" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -7127,8 +7147,9 @@
       <c r="D32" s="29" t="inlineStr"/>
       <c r="E32" s="29" t="inlineStr"/>
       <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="G32" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -7139,8 +7160,9 @@
       <c r="D33" s="29" t="inlineStr"/>
       <c r="E33" s="29" t="inlineStr"/>
       <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="G33" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -7151,8 +7173,9 @@
       <c r="D34" s="29" t="inlineStr"/>
       <c r="E34" s="29" t="inlineStr"/>
       <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="G34" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -7163,8 +7186,9 @@
       <c r="D35" s="29" t="inlineStr"/>
       <c r="E35" s="29" t="inlineStr"/>
       <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="G35" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -7175,8 +7199,9 @@
       <c r="D36" s="29" t="inlineStr"/>
       <c r="E36" s="29" t="inlineStr"/>
       <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="G36" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -7187,8 +7212,9 @@
       <c r="D37" s="29" t="inlineStr"/>
       <c r="E37" s="29" t="inlineStr"/>
       <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="G37" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -7199,8 +7225,9 @@
       <c r="D38" s="29" t="inlineStr"/>
       <c r="E38" s="29" t="inlineStr"/>
       <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="G38" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -7211,8 +7238,9 @@
       <c r="D39" s="29" t="inlineStr"/>
       <c r="E39" s="29" t="inlineStr"/>
       <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="G39" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -7223,8 +7251,9 @@
       <c r="D40" s="29" t="inlineStr"/>
       <c r="E40" s="29" t="inlineStr"/>
       <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="G40" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -7235,8 +7264,9 @@
       <c r="D41" s="29" t="inlineStr"/>
       <c r="E41" s="29" t="inlineStr"/>
       <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="G41" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -7247,8 +7277,9 @@
       <c r="D42" s="29" t="inlineStr"/>
       <c r="E42" s="29" t="inlineStr"/>
       <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="G42" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -7259,8 +7290,9 @@
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
       <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="G43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -7271,8 +7303,9 @@
       <c r="D44" s="29" t="inlineStr"/>
       <c r="E44" s="29" t="inlineStr"/>
       <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -7283,8 +7316,9 @@
       <c r="D45" s="29" t="inlineStr"/>
       <c r="E45" s="29" t="inlineStr"/>
       <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -7295,8 +7329,9 @@
       <c r="D46" s="29" t="inlineStr"/>
       <c r="E46" s="29" t="inlineStr"/>
       <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="G46" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -7307,8 +7342,9 @@
       <c r="D47" s="29" t="inlineStr"/>
       <c r="E47" s="29" t="inlineStr"/>
       <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="G47" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -7319,8 +7355,9 @@
       <c r="D48" s="29" t="inlineStr"/>
       <c r="E48" s="29" t="inlineStr"/>
       <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="G48" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -7331,8 +7368,9 @@
       <c r="D49" s="29" t="inlineStr"/>
       <c r="E49" s="29" t="inlineStr"/>
       <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="G49" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -7343,8 +7381,9 @@
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
       <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="G50" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -7355,8 +7394,9 @@
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="G51" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -7367,8 +7407,9 @@
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="G52" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -7379,8 +7420,9 @@
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="G53" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -7391,8 +7433,9 @@
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="G54" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -7403,8 +7446,9 @@
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="G55" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -7415,8 +7459,9 @@
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="G56" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -7427,8 +7472,9 @@
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="G57" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -7439,8 +7485,9 @@
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="G58" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -7451,8 +7498,9 @@
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="G59" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -7463,8 +7511,9 @@
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="G60" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -7475,8 +7524,9 @@
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="G61" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -7487,8 +7537,9 @@
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="G62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -7499,8 +7550,9 @@
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="G63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -7511,8 +7563,9 @@
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="G64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -7523,8 +7576,9 @@
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="G65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -7535,8 +7589,9 @@
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="G66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -7547,8 +7602,9 @@
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="G67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -7559,8 +7615,9 @@
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="G68" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -7570,8 +7627,9 @@
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="G69" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -7581,8 +7639,9 @@
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="G70" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -7592,8 +7651,9 @@
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="G71" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -7603,8 +7663,9 @@
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="G72" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -7614,8 +7675,9 @@
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="G73" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -7625,8 +7687,9 @@
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="G74" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -7635,7 +7698,6 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -7644,7 +7706,6 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -7954,7 +8015,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8033,10 +8094,10 @@
         <v>42150</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.9616</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>166983</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.9616</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>57554.2</v>
@@ -8055,10 +8116,10 @@
         <v>42147</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4.4077</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>185772</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4.4077</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>56616.69</v>
@@ -8077,10 +8138,10 @@
         <v>41932</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3.4744</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>145689</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3.4744</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>70655.08</v>
@@ -8099,10 +8160,10 @@
         <v>39736</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3.7363</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>148465</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3.7363</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>51064.21</v>
@@ -8121,10 +8182,10 @@
         <v>40671</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>4.3395</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>176490</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>4.3395</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>58445.22</v>
@@ -8143,10 +8204,10 @@
         <v>41068</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3.7798</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>155229</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3.7798</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>39138.63</v>
@@ -8165,10 +8226,10 @@
         <v>41569</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4.1772</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>173641</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4.1772</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>39027.46</v>
@@ -8187,10 +8248,10 @@
         <v>42570</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4.961</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>211191</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4.961</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>42050.01</v>
@@ -8209,10 +8270,10 @@
         <v>40760</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4.3069</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>175549</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4.3069</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>34383.85</v>
@@ -8231,10 +8292,10 @@
         <v>40443</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4.1228</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>166739</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4.1228</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>44055.57</v>
@@ -8253,10 +8314,10 @@
         <v>37985</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.9041</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>110313</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.9041</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19770</v>
@@ -8275,10 +8336,10 @@
         <v>36841</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3.452</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>127174</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3.452</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>13619</v>
@@ -8297,10 +8358,10 @@
         <v>38479</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.7352</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>105246</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.7352</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>16218</v>
@@ -8319,10 +8380,10 @@
         <v>34277</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.4375</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>83550</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.4375</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>16009</v>
@@ -8341,10 +8402,10 @@
         <v>34848</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2.9486</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>102753</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2.9486</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>17546</v>
@@ -8363,10 +8424,10 @@
         <v>34109</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2.8003</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>95516</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2.8003</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>23525</v>
@@ -8385,10 +8446,10 @@
         <v>31691</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.4474</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>77560</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.4474</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>18914</v>
@@ -8407,10 +8468,10 @@
         <v>31485</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2.5616</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>80652</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2.5616</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>23095</v>
@@ -8429,10 +8490,10 @@
         <v>29704</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2.3857</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>70865</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2.3857</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>21572</v>
@@ -8451,10 +8512,10 @@
         <v>28162</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2.8004</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>78866</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2.8004</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>16553</v>
@@ -8473,10 +8534,10 @@
         <v>27142</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2.7897</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>75718</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2.7897</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>21058</v>
@@ -8495,10 +8556,10 @@
         <v>25817</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2.4526</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>63319</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2.4526</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>17225</v>
@@ -8517,10 +8578,10 @@
         <v>22165</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3.0529</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>67667</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3.0529</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>19086</v>
@@ -8539,10 +8600,10 @@
         <v>23808</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>60616</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2.546</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>20191</v>
@@ -8561,10 +8622,10 @@
         <v>22250</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2.9887</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>66499</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2.9887</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9659</v>
@@ -8583,10 +8644,10 @@
         <v>19625</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>34619</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.764</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2194</v>
@@ -8605,10 +8666,10 @@
         <v>20388</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2.1535</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>43905</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2.1535</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2630</v>
@@ -8627,10 +8688,10 @@
         <v>19887</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.4682</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>49085</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.4682</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2309</v>
@@ -8649,10 +8710,10 @@
         <v>18250</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2.3552</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>42983</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2.3552</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3423</v>
@@ -8671,10 +8732,10 @@
         <v>17943</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2.2651</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>40643</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2.2651</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7210</v>
@@ -8693,10 +8754,10 @@
         <v>19492</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2.0351</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>39669</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2.0351</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>7785</v>
@@ -8715,10 +8776,10 @@
         <v>18231</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.1368</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>38956</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.1368</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>5955</v>
@@ -8737,10 +8798,10 @@
         <v>21461</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.671</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>35862</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.671</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>4162</v>
@@ -8759,10 +8820,10 @@
         <v>13741</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.6282</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>36114</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.6282</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>5230</v>
@@ -8781,10 +8842,10 @@
         <v>14063</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.9573</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>27525</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.9573</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3263</v>
@@ -8803,10 +8864,10 @@
         <v>9687</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.2861</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>31832</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.2861</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>5333</v>
@@ -8825,10 +8886,10 @@
         <v>10300</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.8916</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>29783</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.8916</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4369</v>
@@ -8847,10 +8908,10 @@
         <v>6600</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.5197</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>16630</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.5197</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5110</v>
@@ -8869,10 +8930,10 @@
         <v>7700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.9131</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>22431</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.9131</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3341</v>
@@ -8891,10 +8952,10 @@
         <v>5900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.8908</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>17056</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.8908</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>3815</v>
@@ -8913,10 +8974,10 @@
         <v>7800</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.8904</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>22545</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.8904</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>5314</v>
@@ -8935,10 +8996,10 @@
         <v>8200</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.8335</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>23235</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.8335</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4472</v>
@@ -8957,10 +9018,10 @@
         <v>6200</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.9085</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>18033</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.9085</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3181</v>
@@ -8979,10 +9040,10 @@
         <v>5400</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.5272</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13647</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2.5272</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2189</v>
@@ -9001,10 +9062,10 @@
         <v>4700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3.3204</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15606</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3.3204</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1486</v>
@@ -9023,10 +9084,10 @@
         <v>5000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.9128</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>14564</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.9128</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1182</v>
@@ -9045,10 +9106,10 @@
         <v>5050</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3.1408</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15861</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3.1408</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1246</v>
@@ -9067,10 +9128,10 @@
         <v>3950</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.8635</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11311</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.8635</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2549</v>
@@ -9089,10 +9150,10 @@
         <v>5140</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.7994</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14389</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.7994</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2137</v>
@@ -9111,10 +9172,10 @@
         <v>3050</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.8993</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8843</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.8993</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2374</v>
@@ -9133,10 +9194,10 @@
         <v>5830</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.8019</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>16335</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.8019</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1483</v>
@@ -9155,10 +9216,10 @@
         <v>4100</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11894</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.901</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1315</v>
@@ -9177,10 +9238,10 @@
         <v>3500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10192</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.912</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1527</v>
@@ -9199,10 +9260,10 @@
         <v>4470</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.8991</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12959</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.8991</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1140</v>
@@ -9221,10 +9282,10 @@
         <v>4650</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.7996</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>13018</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.7996</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1264</v>
@@ -9243,10 +9304,10 @@
         <v>2860</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.5031</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7159</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.5031</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>925</v>
@@ -9265,10 +9326,10 @@
         <v>4900</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.8816</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>14120</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.8816</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>816</v>
@@ -9286,10 +9347,10 @@
         <v>6100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2.7892</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>17014</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2.7892</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>801</v>
@@ -9307,10 +9368,10 @@
         <v>2840</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2.8979</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8230</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2.8979</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>898</v>
@@ -9328,10 +9389,10 @@
         <v>3260</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2.9028</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9463</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2.9028</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>628</v>
@@ -9349,10 +9410,10 @@
         <v>3900</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.7859</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10865</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.7859</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>370</v>
@@ -9370,10 +9431,10 @@
         <v>2750</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3.0058</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8266</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3.0058</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>611</v>
@@ -9391,10 +9452,10 @@
         <v>2800</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.9264</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8194</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.9264</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>484</v>
@@ -9730,7 +9791,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9809,10 +9870,10 @@
         <v>17631</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.889</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>121459.43</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.889</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -9829,10 +9890,10 @@
         <v>17822</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.869899999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>122434.94</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.869899999999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>131.44</v>
@@ -9851,10 +9912,10 @@
         <v>18216</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.9719</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>127000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.9719</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>84.04000000000001</v>
@@ -9873,10 +9934,10 @@
         <v>18375</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>7.0054</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>128724.76</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>7.0054</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>22.95</v>
@@ -9895,10 +9956,10 @@
         <v>18373</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7.0758</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>130004.33</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7.0758</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -9913,10 +9974,10 @@
         <v>15815</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7.9671</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7.9671</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -9931,10 +9992,10 @@
         <v>15707</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.0483</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>95000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.0483</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -9949,10 +10010,10 @@
         <v>15801</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7.3413</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>116000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7.3413</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -9967,10 +10028,10 @@
         <v>14573</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.381699999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>93000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.381699999999999</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -9985,10 +10046,10 @@
         <v>14476</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.079</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>88000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.079</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -10003,10 +10064,10 @@
         <v>14723</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.5695</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>82000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5.5695</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -10023,10 +10084,10 @@
         <v>12376</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6.3025</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>78000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6.3025</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -10043,10 +10104,10 @@
         <v>7298</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>10.1398</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>74000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>10.1398</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -10063,10 +10124,10 @@
         <v>7298</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>7.6733</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>56000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>7.6733</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -10083,10 +10144,10 @@
         <v>6775</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.904100000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>40000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.904100000000001</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -10103,10 +10164,10 @@
         <v>5949</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.8833</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>35000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.8833</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -10123,10 +10184,10 @@
         <v>5660</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3.8869</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3.8869</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -10143,10 +10204,10 @@
         <v>3816</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4.454899999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>17000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>4.454899999999999</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -10163,10 +10224,10 @@
         <v>1361</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8.964</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>12200</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8.964</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -10183,10 +10244,10 @@
         <v>621</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.5282</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5917</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9.5282</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -10203,10 +10264,10 @@
         <v>99</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6.1616</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>610</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6.1616</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -10223,10 +10284,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6.2759</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6.2759</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -10243,10 +10304,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.2759</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6.2759</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -10263,10 +10324,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6.0667</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -10281,10 +10342,10 @@
         <v>30</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6.0667</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -10299,10 +10360,10 @@
         <v>30</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6.0667</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -10317,10 +10378,10 @@
         <v>30</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6.0667</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -10335,10 +10396,10 @@
         <v>30</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6.0667</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10353,10 +10414,10 @@
         <v>30</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>6.0667</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10371,10 +10432,10 @@
         <v>30</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6.0667</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10389,10 +10450,10 @@
         <v>31</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5.871</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10407,10 +10468,10 @@
         <v>31</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>5.871</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10425,10 +10486,10 @@
         <v>31</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>182</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5.871</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -10448,363 +10509,676 @@
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
+      <c r="B46" s="29" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
+      <c r="B47" s="29" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11114,7 +11488,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11193,14 +11567,17 @@
         <v>5836</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>13.7316</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>80133.49000000001</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>13.7316</v>
-      </c>
-      <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="F12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -11211,14 +11588,17 @@
         <v>4331</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>15.4345</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>66846.62</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>15.4345</v>
-      </c>
-      <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="F13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -11229,14 +11609,17 @@
         <v>5833</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11.3981</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>66481.52</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>11.3981</v>
-      </c>
-      <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="F14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -11247,14 +11630,17 @@
         <v>4610</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10.9095</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>50292.63</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>10.9095</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="F15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -11265,14 +11651,17 @@
         <v>4319</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11.3439</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>48998.58</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>11.3439</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="F16" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -11283,14 +11672,17 @@
         <v>3611</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>11.1464</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>40251.34</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>11.1464</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="F17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -11301,14 +11693,17 @@
         <v>3334</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>11.0072</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>36699.7</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>11.0072</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="F18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -11319,14 +11714,17 @@
         <v>2946</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>9.865399999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>29066.69</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>9.865399999999999</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="F19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -11337,14 +11735,17 @@
         <v>2031</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7.6258</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>15488.54</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>7.6258</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="F20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -11355,14 +11756,17 @@
         <v>1803</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>10.0004</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>18031.41</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>10.0004</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="F21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -11373,14 +11777,17 @@
         <v>1290</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7.876</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>10160</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>7.876</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -11391,14 +11798,17 @@
         <v>885</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>8.125399999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7191</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>8.125399999999999</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -11409,14 +11819,17 @@
         <v>636</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>10.5409</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6704</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>10.5409</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -11427,14 +11840,17 @@
         <v>106</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.990600000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1059</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>9.990600000000001</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="F25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -11445,14 +11861,17 @@
         <v>190</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.3947</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1595</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>8.3947</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="F26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -11463,14 +11882,17 @@
         <v>62</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2.4194</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>150</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>2.4194</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="F27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -11481,14 +11903,17 @@
         <v>14</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8.7857</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>123</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>8.7857</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="F28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -11499,14 +11924,17 @@
         <v>56</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4.714300000000001</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>264</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>4.714300000000001</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="F29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -11517,14 +11945,17 @@
         <v>60</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4.3333</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>260</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>4.3333</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -11535,14 +11966,17 @@
         <v>60</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4.6667</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>280</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>4.6667</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -11553,14 +11987,17 @@
         <v>60</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4.9167</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>295</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>4.9167</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="F32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -11571,14 +12008,17 @@
         <v>60</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5.3333</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>320</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>5.3333</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="F33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -11589,14 +12029,17 @@
         <v>60</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.3333</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>380</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>6.3333</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="F34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -11607,14 +12050,17 @@
         <v>60</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>285</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="F35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -11625,14 +12071,17 @@
         <v>110</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4.1818</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>460</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>4.1818</v>
-      </c>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="F36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -11643,14 +12092,17 @@
         <v>115</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3.3913</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>390</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>3.3913</v>
-      </c>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="F37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -11661,14 +12113,17 @@
         <v>200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>565</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>2.825</v>
-      </c>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="F38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -11679,14 +12134,17 @@
         <v>200</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1100</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="F39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -11697,14 +12155,17 @@
         <v>200</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>4.815</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>963</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>4.815</v>
-      </c>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="F40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -11715,14 +12176,17 @@
         <v>200</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1072</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="F41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -11733,14 +12197,17 @@
         <v>25</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="F42" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -11750,9 +12217,12 @@
       <c r="C43" s="29" t="inlineStr"/>
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -11762,9 +12232,12 @@
       <c r="C44" s="29" t="inlineStr"/>
       <c r="D44" s="29" t="inlineStr"/>
       <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -11774,9 +12247,12 @@
       <c r="C45" s="29" t="inlineStr"/>
       <c r="D45" s="29" t="inlineStr"/>
       <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -11786,9 +12262,12 @@
       <c r="C46" s="29" t="inlineStr"/>
       <c r="D46" s="29" t="inlineStr"/>
       <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -11798,9 +12277,12 @@
       <c r="C47" s="29" t="inlineStr"/>
       <c r="D47" s="29" t="inlineStr"/>
       <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -11810,9 +12292,12 @@
       <c r="C48" s="29" t="inlineStr"/>
       <c r="D48" s="29" t="inlineStr"/>
       <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="F48" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -11822,9 +12307,12 @@
       <c r="C49" s="29" t="inlineStr"/>
       <c r="D49" s="29" t="inlineStr"/>
       <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="F49" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -11834,9 +12322,12 @@
       <c r="C50" s="29" t="inlineStr"/>
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="F50" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -11846,9 +12337,12 @@
       <c r="C51" s="29" t="inlineStr"/>
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="F51" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -11858,9 +12352,12 @@
       <c r="C52" s="29" t="inlineStr"/>
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="F52" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -11870,9 +12367,12 @@
       <c r="C53" s="29" t="inlineStr"/>
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="F53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -11882,9 +12382,12 @@
       <c r="C54" s="29" t="inlineStr"/>
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="F54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -11894,9 +12397,12 @@
       <c r="C55" s="29" t="inlineStr"/>
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="F55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -11906,9 +12412,12 @@
       <c r="C56" s="29" t="inlineStr"/>
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="F56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -11918,9 +12427,12 @@
       <c r="C57" s="29" t="inlineStr"/>
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="F57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -11930,9 +12442,12 @@
       <c r="C58" s="29" t="inlineStr"/>
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="F58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -11942,9 +12457,12 @@
       <c r="C59" s="29" t="inlineStr"/>
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="F59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -11954,9 +12472,12 @@
       <c r="C60" s="29" t="inlineStr"/>
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="F60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -11966,9 +12487,12 @@
       <c r="C61" s="29" t="inlineStr"/>
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="F61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -11978,9 +12502,12 @@
       <c r="C62" s="29" t="inlineStr"/>
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="F62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -11990,9 +12517,12 @@
       <c r="C63" s="29" t="inlineStr"/>
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="F63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -12002,9 +12532,12 @@
       <c r="C64" s="29" t="inlineStr"/>
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="F64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -12014,9 +12547,12 @@
       <c r="C65" s="29" t="inlineStr"/>
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="F65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -12026,9 +12562,12 @@
       <c r="C66" s="29" t="inlineStr"/>
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="F66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -12038,9 +12577,12 @@
       <c r="C67" s="29" t="inlineStr"/>
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="F67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -12050,9 +12592,12 @@
       <c r="C68" s="29" t="inlineStr"/>
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="F68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -12061,9 +12606,12 @@
       <c r="C69" s="29" t="inlineStr"/>
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="F69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -12072,9 +12620,12 @@
       <c r="C70" s="29" t="inlineStr"/>
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="F70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -12083,9 +12634,12 @@
       <c r="C71" s="29" t="inlineStr"/>
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="F71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -12094,9 +12648,12 @@
       <c r="C72" s="29" t="inlineStr"/>
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="F72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -12105,9 +12662,12 @@
       <c r="C73" s="29" t="inlineStr"/>
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="F73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -12116,9 +12676,12 @@
       <c r="C74" s="29" t="inlineStr"/>
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="F74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -12126,8 +12689,6 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -12135,8 +12696,6 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Arándanos.xlsx
+++ b/Resultados/Mercado mundial - Arándanos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perú" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Canadá" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chile" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="United States of America" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Peru" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Canada" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Chile" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mexico" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Perú'!$B$12:$B$74</f>
+              <f>'Peru'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Perú'!$C$12:$C$74</f>
+              <f>'Peru'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Canadá'!$B$12:$B$74</f>
+              <f>'Canada'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Canadá'!$C$12:$C$74</f>
+              <f>'Canada'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1006,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>186413</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1220665.49</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.5482</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1220665.49</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>470666.69</v>
@@ -2160,10 +2160,10 @@
         <v>185882</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1304253.79</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>7.0166</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1304253.79</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>538853.8199999999</v>
@@ -2182,10 +2182,10 @@
         <v>181723</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1196360.16</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.583399999999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1196360.16</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>486780.55</v>
@@ -2204,10 +2204,10 @@
         <v>162103</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1040172.67</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6.4167</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1040172.67</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>428927.5</v>
@@ -2226,10 +2226,10 @@
         <v>156201</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1037118.86</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6.639600000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1037118.86</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>415445.22</v>
@@ -2248,10 +2248,10 @@
         <v>135766</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>823732.9</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6.0673</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>823732.9</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>321034.68</v>
@@ -2270,10 +2270,10 @@
         <v>123165</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>720884.71</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5.853</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>720884.71</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>267617.16</v>
@@ -2292,10 +2292,10 @@
         <v>121191</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>752662.85</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.2105</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>752662.85</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>251209.26</v>
@@ -2314,10 +2314,10 @@
         <v>111813</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>645239.84</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5.7707</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>645239.84</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>207838.07</v>
@@ -2336,10 +2336,10 @@
         <v>109933</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>628846.17</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5.7202</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>628846.17</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>190434.92</v>
@@ -2358,10 +2358,10 @@
         <v>104644</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>526324.15</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.0297</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>526324.15</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>156914</v>
@@ -2380,10 +2380,10 @@
         <v>97519</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>490370.21</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.0284</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>490370.21</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>136696</v>
@@ -2402,10 +2402,10 @@
         <v>90843</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>444345.57</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4.8914</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>444345.57</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>127353</v>
@@ -2424,10 +2424,10 @@
         <v>84721</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>388388.29</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.5843</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>388388.29</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>113178</v>
@@ -2446,10 +2446,10 @@
         <v>80349</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>383517.9</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4.7731</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>383517.9</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>97379</v>
@@ -2468,10 +2468,10 @@
         <v>81684</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>353653.57</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4.3295</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>353653.57</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>88600</v>
@@ -2490,10 +2490,10 @@
         <v>76255</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>291665.45</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3.8249</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>291665.45</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>70307</v>
@@ -2512,10 +2512,10 @@
         <v>73901</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>286653.57</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3.8789</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>286653.57</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>68687</v>
@@ -2534,10 +2534,10 @@
         <v>68221</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>256906.12</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>3.7658</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>256906.12</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>61798</v>
@@ -2556,10 +2556,10 @@
         <v>59883</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>238455.14</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3.9821</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>238455.14</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>56253</v>
@@ -2578,10 +2578,10 @@
         <v>58488</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>218475.6</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3.7354</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>218475.6</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>54758</v>
@@ -2600,10 +2600,10 @@
         <v>56009</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>202423.22</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>3.6141</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>202423.22</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>49224</v>
@@ -2622,10 +2622,10 @@
         <v>53727</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>231847.59</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.315300000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>231847.59</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>53232</v>
@@ -2644,10 +2644,10 @@
         <v>54859</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>211325.51</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3.8521</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>211325.51</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>47458.14</v>
@@ -2666,10 +2666,10 @@
         <v>52026</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>205592.16</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3.9517</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>205592.16</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>32758</v>
@@ -2688,10 +2688,10 @@
         <v>49349</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>158406.26</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3.2099</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>158406.26</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>22876</v>
@@ -2710,10 +2710,10 @@
         <v>48737</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>174324.66</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3.5768</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>174324.66</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>19642</v>
@@ -2732,10 +2732,10 @@
         <v>46245</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>158520.49</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3.4278</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>158520.49</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17477</v>
@@ -2754,10 +2754,10 @@
         <v>44083</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>157000.18</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.5615</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>157000.18</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>17235</v>
@@ -2776,10 +2776,10 @@
         <v>41754</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>134105.35</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3.2118</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>134105.35</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>21216</v>
@@ -2798,10 +2798,10 @@
         <v>41842</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>143428.62</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.4279</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>143428.62</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>21029</v>
@@ -2820,10 +2820,10 @@
         <v>39799</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>114694.89</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.8819</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>114694.89</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>20097</v>
@@ -2842,10 +2842,10 @@
         <v>50231</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>125031.56</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.4891</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>125031.56</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>17186</v>
@@ -2864,10 +2864,10 @@
         <v>43459</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>133187.56</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3.0647</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>133187.56</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>15426</v>
@@ -2886,10 +2886,10 @@
         <v>41218</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>112893</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.7389</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>112893</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>11487</v>
@@ -2908,10 +2908,10 @@
         <v>35899</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>115016</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.2039</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>115016</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>18652</v>
@@ -2930,10 +2930,10 @@
         <v>37133</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>110949</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.9879</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>110949</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>14734</v>
@@ -2952,10 +2952,10 @@
         <v>33306</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>99115</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.9759</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>99115</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>13149</v>
@@ -2974,10 +2974,10 @@
         <v>34746</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>103226</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.9709</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>103226</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>12715</v>
@@ -2996,10 +2996,10 @@
         <v>31416</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>85206</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.7122</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>85206</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>12367</v>
@@ -3018,10 +3018,10 @@
         <v>33937</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>98050</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.8892</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>98050</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>11942</v>
@@ -3040,10 +3040,10 @@
         <v>32250</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>92935</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.8817</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>92935</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>11604</v>
@@ -3062,10 +3062,10 @@
         <v>26484</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>85310</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.2212</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>85310</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>6557</v>
@@ -3084,10 +3084,10 @@
         <v>24460</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>73769</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3.0159</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>73769</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>5723</v>
@@ -3106,10 +3106,10 @@
         <v>23564</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>71287</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3.0253</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>71287</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>8586</v>
@@ -3128,10 +3128,10 @@
         <v>23578</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>65422</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.7747</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>65422</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>7444</v>
@@ -3150,10 +3150,10 @@
         <v>19758</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>56813</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.8754</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>56813</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>9482</v>
@@ -3172,10 +3172,10 @@
         <v>23955</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>64825</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.7061</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>64825</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>9230</v>
@@ -3194,10 +3194,10 @@
         <v>22742</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>62205</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.7352</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>62205</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>8976</v>
@@ -3216,10 +3216,10 @@
         <v>22652</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>62164</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.7443</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>62164</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>6631</v>
@@ -3238,10 +3238,10 @@
         <v>28032</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.7112</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>76000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>9010</v>
@@ -3260,10 +3260,10 @@
         <v>21602</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>55459</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.5673</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>55459</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>7286</v>
@@ -3282,10 +3282,10 @@
         <v>23700</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>61515</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.5956</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>61515</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>7628</v>
@@ -3304,10 +3304,10 @@
         <v>20920</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>60749</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.9039</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>60749</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>7903</v>
@@ -3326,10 +3326,10 @@
         <v>21050</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>62328</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.961</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>62328</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>7245</v>
@@ -3348,10 +3348,10 @@
         <v>6173</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>35380</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5.7314</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>35380</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>8516</v>
@@ -3370,10 +3370,10 @@
         <v>8163</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>41404</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5.0722</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>41404</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>10980</v>
@@ -3391,10 +3391,10 @@
         <v>9363</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>48367</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5.1658</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>48367</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>17059</v>
@@ -3412,10 +3412,10 @@
         <v>3094</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>33416</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10.8003</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>33416</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>12783</v>
@@ -3433,10 +3433,10 @@
         <v>3511</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>38370</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10.9285</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>38370</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>12408</v>
@@ -3454,10 +3454,10 @@
         <v>4147</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>36251</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.7415</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>36251</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>10918</v>
@@ -3475,10 +3475,10 @@
         <v>2969</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>30048</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10.1206</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>30048</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>9064</v>
@@ -3496,10 +3496,10 @@
         <v>3023</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>35091</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.608</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>35091</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>10040</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>51315</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>333660</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.5022</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>333660</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>253384.65</v>
@@ -5033,10 +5033,10 @@
         <v>52286</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>351850</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.7293</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>351850</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>297981.28</v>
@@ -5055,10 +5055,10 @@
         <v>55119</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>378390</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.865</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>378390</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>259209.62</v>
@@ -5077,10 +5077,10 @@
         <v>47308</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>315520</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6.6695</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>315520</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>219048.52</v>
@@ -5099,10 +5099,10 @@
         <v>47591</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>342230</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7.1911</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>342230</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>214151.41</v>
@@ -5121,10 +5121,10 @@
         <v>39100</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>255050</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6.523</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>255050</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>179056.41</v>
@@ -5143,10 +5143,10 @@
         <v>33950</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>235210</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.928100000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>235210</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>145208.67</v>
@@ -5165,10 +5165,10 @@
         <v>37555</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>269257</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7.1697</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>269257</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>148910.93</v>
@@ -5187,10 +5187,10 @@
         <v>36349</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>254012</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.9881</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>254012</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>122571.53</v>
@@ -5209,10 +5209,10 @@
         <v>34297</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>262498</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7.6537</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>262498</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>106423.31</v>
@@ -5231,10 +5231,10 @@
         <v>32796</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>246559</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7.518</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>246559</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>103502</v>
@@ -5253,10 +5253,10 @@
         <v>30919</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>212168</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6.862100000000001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>212168</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>96367</v>
@@ -5275,10 +5275,10 @@
         <v>29660</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>201030</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.7778</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>201030</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>87336</v>
@@ -5297,10 +5297,10 @@
         <v>28530</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>188926</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6.622</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>188926</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>76743</v>
@@ -5319,10 +5319,10 @@
         <v>26010</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>169050</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6.4994</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>169050</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>60450</v>
@@ -5341,10 +5341,10 @@
         <v>24480</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>158260</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6.464899999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>158260</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>52111</v>
@@ -5363,10 +5363,10 @@
         <v>21619</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>130290</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6.0266</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>130290</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>35125</v>
@@ -5385,10 +5385,10 @@
         <v>22030</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>128850</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.8488</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>128850</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>32602</v>
@@ -5407,10 +5407,10 @@
         <v>19820</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>108270</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.4627</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>108270</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>26319</v>
@@ -5429,10 +5429,10 @@
         <v>18150</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>103850</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.7218</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>103850</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>28878</v>
@@ -5451,10 +5451,10 @@
         <v>17030</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>86020</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5.0511</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>86020</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>23209</v>
@@ -5473,10 +5473,10 @@
         <v>16936</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>87080</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5.1417</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>87080</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>21104</v>
@@ -5495,10 +5495,10 @@
         <v>16360</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>87450</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>5.3454</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>87450</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>22387</v>
@@ -5517,10 +5517,10 @@
         <v>16520</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>84670</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5.1253</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>84670</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>16583.9</v>
@@ -5539,10 +5539,10 @@
         <v>16040</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>80960</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5.0474</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>80960</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>14500</v>
@@ -5561,10 +5561,10 @@
         <v>15780</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>69300</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4.3916</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>69300</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>8733</v>
@@ -5583,10 +5583,10 @@
         <v>15650</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>77110</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4.9272</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>77110</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>7831</v>
@@ -5605,10 +5605,10 @@
         <v>15280</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>58730</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3.8436</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>58730</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8061</v>
@@ -5627,10 +5627,10 @@
         <v>15390</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>4.8083</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>74000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8830</v>
@@ -5649,10 +5649,10 @@
         <v>15000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>63780</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4.252</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>63780</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>8679</v>
@@ -5671,10 +5671,10 @@
         <v>14770</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>77230</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.228800000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>77230</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>7951</v>
@@ -5693,10 +5693,10 @@
         <v>13620</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>51300</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.7665</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>51300</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>9262</v>
@@ -5715,10 +5715,10 @@
         <v>24800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>69880</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.8177</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>69880</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9450</v>
@@ -5737,10 +5737,10 @@
         <v>26400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>79940</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3.028</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>79940</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>7641</v>
@@ -5759,10 +5759,10 @@
         <v>22300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>70047</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3.1411</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>70047</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6251</v>
@@ -5781,10 +5781,10 @@
         <v>21600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>69148</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.2013</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>69148</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>11640</v>
@@ -5803,10 +5803,10 @@
         <v>22200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>66854</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3.0114</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>66854</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>7669</v>
@@ -5825,10 +5825,10 @@
         <v>22100</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>68758</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.1112</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>68758</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4799</v>
@@ -5847,10 +5847,10 @@
         <v>22400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>67289</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3.004</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>67289</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>5385</v>
@@ -5869,10 +5869,10 @@
         <v>21000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>54456</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.5931</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>54456</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>4076</v>
@@ -5891,10 +5891,10 @@
         <v>21700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>60962</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.8093</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>60962</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3809</v>
@@ -5913,10 +5913,10 @@
         <v>19700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>55200</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.802</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>55200</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4195</v>
@@ -5935,10 +5935,10 @@
         <v>15980</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>53069</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.321</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>53069</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>2072</v>
@@ -5957,10 +5957,10 @@
         <v>14830</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>46381</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3.1275</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>46381</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2004</v>
@@ -5979,10 +5979,10 @@
         <v>14850</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>41896</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2.8213</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>41896</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>3016</v>
@@ -6001,10 +6001,10 @@
         <v>14670</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>37324</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.5442</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>37324</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>3205</v>
@@ -6023,10 +6023,10 @@
         <v>10900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>27326</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.507</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>27326</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2943</v>
@@ -6045,10 +6045,10 @@
         <v>16300</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>40670</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.4951</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>40670</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1600</v>
@@ -6067,10 +6067,10 @@
         <v>14000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>35116</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.5083</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>35116</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2341</v>
@@ -6089,10 +6089,10 @@
         <v>16000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>40435</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.5272</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>40435</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1465</v>
@@ -6111,10 +6111,10 @@
         <v>18700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.4048</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>44969</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>2531</v>
@@ -6133,10 +6133,10 @@
         <v>14000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>30744</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.196</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>30744</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1735</v>
@@ -6155,10 +6155,10 @@
         <v>17000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>39627</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.331</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>39627</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1776</v>
@@ -6177,10 +6177,10 @@
         <v>13300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>30060</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.2602</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>30060</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2218</v>
@@ -6199,10 +6199,10 @@
         <v>13300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>31814</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.392</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>31814</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1900</v>
@@ -6221,10 +6221,10 @@
         <v>263</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6.4639</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1700</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1251</v>
@@ -6243,10 +6243,10 @@
         <v>263</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6.4639</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1700</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3870</v>
@@ -6264,10 +6264,10 @@
         <v>263</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6.4639</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1700</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>6881</v>
@@ -6285,10 +6285,10 @@
         <v>254</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1686</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.6378</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1686</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2632</v>
@@ -6306,10 +6306,10 @@
         <v>251</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6.055800000000001</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1520</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3320</v>
@@ -6326,11 +6326,11 @@
       <c r="C72" s="29" t="n">
         <v>247</v>
       </c>
-      <c r="D72" s="29" t="n">
+      <c r="D72" s="28" t="n">
+        <v>1937</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7.8421</v>
-      </c>
-      <c r="E72" s="28" t="n">
-        <v>1937</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>4455</v>
@@ -6348,10 +6348,10 @@
         <v>219</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1347</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.1507</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1347</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>2189</v>
@@ -6369,10 +6369,10 @@
         <v>223</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1372</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.1525</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1372</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2068</v>
@@ -6708,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,15 +6787,14 @@
         <v>17103</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>229390</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>13.4125</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>229390</v>
-      </c>
       <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -6806,15 +6805,14 @@
         <v>21814</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>292584</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13.4125</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>292584</v>
-      </c>
       <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -6825,15 +6823,14 @@
         <v>17011</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>228160</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>13.4125</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>228160</v>
-      </c>
       <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -6844,17 +6841,16 @@
         <v>13369</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>179305</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>13.4125</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>179305</v>
-      </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="n">
         <v>162174.36</v>
       </c>
-      <c r="G15" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -6865,17 +6861,16 @@
         <v>11027</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>147900</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>13.4125</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>147900</v>
-      </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="n">
         <v>125055.83</v>
       </c>
-      <c r="G16" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -6886,17 +6881,16 @@
         <v>6011</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>94805</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>15.7719</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>94805</v>
-      </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="n">
         <v>74003.13</v>
       </c>
-      <c r="G17" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -6907,17 +6901,16 @@
         <v>4134</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>52301</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>12.6514</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>52301</v>
-      </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="n">
         <v>43038.97</v>
       </c>
-      <c r="G18" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -6928,17 +6921,16 @@
         <v>1945</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>22978.29</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>11.814</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>22978.29</v>
-      </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="n">
         <v>54479.68</v>
       </c>
-      <c r="G19" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -6949,17 +6941,16 @@
         <v>1158</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10585</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>9.140799999999999</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>10585</v>
-      </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="n">
         <v>10209.96</v>
       </c>
-      <c r="G20" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -6970,17 +6961,16 @@
         <v>300</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.333299999999999</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F21" s="29" t="n">
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="n">
         <v>2899.2</v>
       </c>
-      <c r="G21" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -6991,17 +6981,16 @@
         <v>650</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.5662</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>1668</v>
-      </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="n">
         <v>1499</v>
       </c>
-      <c r="G22" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -7012,15 +7001,14 @@
         <v>400</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>560</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.4</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>560</v>
-      </c>
       <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -7031,15 +7019,14 @@
         <v>280</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>320</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.1429</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>320</v>
-      </c>
       <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -7050,15 +7037,14 @@
         <v>32</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.9375</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>30</v>
-      </c>
       <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -7069,9 +7055,8 @@
       <c r="D26" s="29" t="inlineStr"/>
       <c r="E26" s="29" t="inlineStr"/>
       <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -7082,9 +7067,8 @@
       <c r="D27" s="29" t="inlineStr"/>
       <c r="E27" s="29" t="inlineStr"/>
       <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -7095,9 +7079,8 @@
       <c r="D28" s="29" t="inlineStr"/>
       <c r="E28" s="29" t="inlineStr"/>
       <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -7108,9 +7091,8 @@
       <c r="D29" s="29" t="inlineStr"/>
       <c r="E29" s="29" t="inlineStr"/>
       <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -7121,9 +7103,8 @@
       <c r="D30" s="29" t="inlineStr"/>
       <c r="E30" s="29" t="inlineStr"/>
       <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -7134,9 +7115,8 @@
       <c r="D31" s="29" t="inlineStr"/>
       <c r="E31" s="29" t="inlineStr"/>
       <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -7147,9 +7127,8 @@
       <c r="D32" s="29" t="inlineStr"/>
       <c r="E32" s="29" t="inlineStr"/>
       <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -7160,9 +7139,8 @@
       <c r="D33" s="29" t="inlineStr"/>
       <c r="E33" s="29" t="inlineStr"/>
       <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -7173,9 +7151,8 @@
       <c r="D34" s="29" t="inlineStr"/>
       <c r="E34" s="29" t="inlineStr"/>
       <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -7186,9 +7163,8 @@
       <c r="D35" s="29" t="inlineStr"/>
       <c r="E35" s="29" t="inlineStr"/>
       <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -7199,9 +7175,8 @@
       <c r="D36" s="29" t="inlineStr"/>
       <c r="E36" s="29" t="inlineStr"/>
       <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -7212,9 +7187,8 @@
       <c r="D37" s="29" t="inlineStr"/>
       <c r="E37" s="29" t="inlineStr"/>
       <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -7225,9 +7199,8 @@
       <c r="D38" s="29" t="inlineStr"/>
       <c r="E38" s="29" t="inlineStr"/>
       <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -7238,9 +7211,8 @@
       <c r="D39" s="29" t="inlineStr"/>
       <c r="E39" s="29" t="inlineStr"/>
       <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -7251,9 +7223,8 @@
       <c r="D40" s="29" t="inlineStr"/>
       <c r="E40" s="29" t="inlineStr"/>
       <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -7264,9 +7235,8 @@
       <c r="D41" s="29" t="inlineStr"/>
       <c r="E41" s="29" t="inlineStr"/>
       <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -7277,9 +7247,8 @@
       <c r="D42" s="29" t="inlineStr"/>
       <c r="E42" s="29" t="inlineStr"/>
       <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -7290,9 +7259,8 @@
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
       <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -7303,9 +7271,8 @@
       <c r="D44" s="29" t="inlineStr"/>
       <c r="E44" s="29" t="inlineStr"/>
       <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -7316,9 +7283,8 @@
       <c r="D45" s="29" t="inlineStr"/>
       <c r="E45" s="29" t="inlineStr"/>
       <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -7329,9 +7295,8 @@
       <c r="D46" s="29" t="inlineStr"/>
       <c r="E46" s="29" t="inlineStr"/>
       <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -7342,9 +7307,8 @@
       <c r="D47" s="29" t="inlineStr"/>
       <c r="E47" s="29" t="inlineStr"/>
       <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -7355,9 +7319,8 @@
       <c r="D48" s="29" t="inlineStr"/>
       <c r="E48" s="29" t="inlineStr"/>
       <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -7368,9 +7331,8 @@
       <c r="D49" s="29" t="inlineStr"/>
       <c r="E49" s="29" t="inlineStr"/>
       <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -7381,9 +7343,8 @@
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
       <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -7394,9 +7355,8 @@
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -7407,9 +7367,8 @@
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -7420,9 +7379,8 @@
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -7433,9 +7391,8 @@
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -7446,9 +7403,8 @@
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -7459,9 +7415,8 @@
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -7472,9 +7427,8 @@
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -7485,9 +7439,8 @@
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -7498,9 +7451,8 @@
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -7511,9 +7463,8 @@
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -7524,9 +7475,8 @@
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -7537,9 +7487,8 @@
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -7550,9 +7499,8 @@
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -7563,9 +7511,8 @@
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -7576,9 +7523,8 @@
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -7589,9 +7535,8 @@
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -7602,9 +7547,8 @@
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -7615,9 +7559,8 @@
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -7627,9 +7570,8 @@
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -7639,9 +7581,8 @@
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -7651,9 +7592,8 @@
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -7663,9 +7603,8 @@
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -7675,9 +7614,8 @@
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -7687,9 +7625,8 @@
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -7698,6 +7635,7 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -7706,6 +7644,7 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8015,7 +7954,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8094,10 +8033,10 @@
         <v>42150</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>166983</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.9616</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>166983</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>57554.2</v>
@@ -8116,10 +8055,10 @@
         <v>42147</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>185772</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4.4077</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>185772</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>56616.69</v>
@@ -8138,10 +8077,10 @@
         <v>41932</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>145689</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3.4744</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>145689</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>70655.08</v>
@@ -8160,10 +8099,10 @@
         <v>39736</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>148465</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3.7363</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>148465</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>51064.21</v>
@@ -8182,10 +8121,10 @@
         <v>40671</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>176490</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>4.3395</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>176490</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>58445.22</v>
@@ -8204,10 +8143,10 @@
         <v>41068</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>155229</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3.7798</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>155229</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>39138.63</v>
@@ -8226,10 +8165,10 @@
         <v>41569</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>173641</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4.1772</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>173641</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>39027.46</v>
@@ -8248,10 +8187,10 @@
         <v>42570</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>211191</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4.961</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>211191</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>42050.01</v>
@@ -8270,10 +8209,10 @@
         <v>40760</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>175549</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4.3069</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>175549</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>34383.85</v>
@@ -8292,10 +8231,10 @@
         <v>40443</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>166739</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4.1228</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>166739</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>44055.57</v>
@@ -8314,10 +8253,10 @@
         <v>37985</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>110313</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.9041</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>110313</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19770</v>
@@ -8336,10 +8275,10 @@
         <v>36841</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>127174</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3.452</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>127174</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>13619</v>
@@ -8358,10 +8297,10 @@
         <v>38479</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>105246</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.7352</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>105246</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>16218</v>
@@ -8380,10 +8319,10 @@
         <v>34277</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>83550</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.4375</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>83550</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>16009</v>
@@ -8402,10 +8341,10 @@
         <v>34848</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>102753</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2.9486</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>102753</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>17546</v>
@@ -8424,10 +8363,10 @@
         <v>34109</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>95516</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2.8003</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>95516</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>23525</v>
@@ -8446,10 +8385,10 @@
         <v>31691</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>77560</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.4474</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>77560</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>18914</v>
@@ -8468,10 +8407,10 @@
         <v>31485</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>80652</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2.5616</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>80652</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>23095</v>
@@ -8490,10 +8429,10 @@
         <v>29704</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>70865</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2.3857</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>70865</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>21572</v>
@@ -8512,10 +8451,10 @@
         <v>28162</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>78866</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2.8004</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>78866</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>16553</v>
@@ -8534,10 +8473,10 @@
         <v>27142</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>75718</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2.7897</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>75718</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>21058</v>
@@ -8556,10 +8495,10 @@
         <v>25817</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>63319</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2.4526</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>63319</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>17225</v>
@@ -8578,10 +8517,10 @@
         <v>22165</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>67667</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3.0529</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>67667</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>19086</v>
@@ -8600,10 +8539,10 @@
         <v>23808</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>60616</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2.546</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>60616</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>20191</v>
@@ -8622,10 +8561,10 @@
         <v>22250</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>66499</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2.9887</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>66499</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9659</v>
@@ -8644,10 +8583,10 @@
         <v>19625</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>34619</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.764</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>34619</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2194</v>
@@ -8666,10 +8605,10 @@
         <v>20388</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>43905</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2.1535</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>43905</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2630</v>
@@ -8688,10 +8627,10 @@
         <v>19887</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>49085</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.4682</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>49085</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2309</v>
@@ -8710,10 +8649,10 @@
         <v>18250</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>42983</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2.3552</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>42983</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3423</v>
@@ -8732,10 +8671,10 @@
         <v>17943</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>40643</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2.2651</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>40643</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7210</v>
@@ -8754,10 +8693,10 @@
         <v>19492</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>39669</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2.0351</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>39669</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>7785</v>
@@ -8776,10 +8715,10 @@
         <v>18231</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>38956</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.1368</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>38956</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>5955</v>
@@ -8798,10 +8737,10 @@
         <v>21461</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>35862</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.671</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>35862</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>4162</v>
@@ -8820,10 +8759,10 @@
         <v>13741</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>36114</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.6282</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>36114</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>5230</v>
@@ -8842,10 +8781,10 @@
         <v>14063</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>27525</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.9573</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>27525</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3263</v>
@@ -8864,10 +8803,10 @@
         <v>9687</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>31832</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.2861</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>31832</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>5333</v>
@@ -8886,10 +8825,10 @@
         <v>10300</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>29783</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.8916</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>29783</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4369</v>
@@ -8908,10 +8847,10 @@
         <v>6600</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>16630</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.5197</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>16630</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5110</v>
@@ -8930,10 +8869,10 @@
         <v>7700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>22431</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.9131</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>22431</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3341</v>
@@ -8952,10 +8891,10 @@
         <v>5900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>17056</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.8908</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>17056</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>3815</v>
@@ -8974,10 +8913,10 @@
         <v>7800</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>22545</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.8904</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>22545</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>5314</v>
@@ -8996,10 +8935,10 @@
         <v>8200</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>23235</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.8335</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>23235</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4472</v>
@@ -9018,10 +8957,10 @@
         <v>6200</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>18033</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.9085</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>18033</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3181</v>
@@ -9040,10 +8979,10 @@
         <v>5400</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13647</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.5272</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13647</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2189</v>
@@ -9062,10 +9001,10 @@
         <v>4700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15606</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3.3204</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15606</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1486</v>
@@ -9084,10 +9023,10 @@
         <v>5000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>14564</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.9128</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>14564</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1182</v>
@@ -9106,10 +9045,10 @@
         <v>5050</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15861</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3.1408</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15861</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1246</v>
@@ -9128,10 +9067,10 @@
         <v>3950</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11311</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.8635</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11311</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2549</v>
@@ -9150,10 +9089,10 @@
         <v>5140</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14389</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.7994</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14389</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2137</v>
@@ -9172,10 +9111,10 @@
         <v>3050</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8843</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.8993</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8843</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2374</v>
@@ -9194,10 +9133,10 @@
         <v>5830</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>16335</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.8019</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>16335</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1483</v>
@@ -9216,10 +9155,10 @@
         <v>4100</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11894</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.901</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11894</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1315</v>
@@ -9238,10 +9177,10 @@
         <v>3500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10192</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.912</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10192</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1527</v>
@@ -9260,10 +9199,10 @@
         <v>4470</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12959</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.8991</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12959</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1140</v>
@@ -9282,10 +9221,10 @@
         <v>4650</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>13018</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.7996</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>13018</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1264</v>
@@ -9304,10 +9243,10 @@
         <v>2860</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7159</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.5031</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7159</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>925</v>
@@ -9326,10 +9265,10 @@
         <v>4900</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>14120</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.8816</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>14120</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>816</v>
@@ -9347,10 +9286,10 @@
         <v>6100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>17014</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2.7892</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>17014</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>801</v>
@@ -9368,10 +9307,10 @@
         <v>2840</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8230</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2.8979</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8230</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>898</v>
@@ -9389,10 +9328,10 @@
         <v>3260</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9463</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2.9028</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9463</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>628</v>
@@ -9410,10 +9349,10 @@
         <v>3900</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10865</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.7859</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10865</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>370</v>
@@ -9431,10 +9370,10 @@
         <v>2750</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8266</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3.0058</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8266</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>611</v>
@@ -9452,10 +9391,10 @@
         <v>2800</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8194</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.9264</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8194</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>484</v>
@@ -9791,7 +9730,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9870,10 +9809,10 @@
         <v>17631</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>121459.43</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.889</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>121459.43</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -9890,10 +9829,10 @@
         <v>17822</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>122434.94</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.869899999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>122434.94</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>131.44</v>
@@ -9912,10 +9851,10 @@
         <v>18216</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.9719</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>127000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>84.04000000000001</v>
@@ -9934,10 +9873,10 @@
         <v>18375</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>128724.76</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>7.0054</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>128724.76</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>22.95</v>
@@ -9956,10 +9895,10 @@
         <v>18373</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>130004.33</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7.0758</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>130004.33</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -9974,10 +9913,10 @@
         <v>15815</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7.9671</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -9992,10 +9931,10 @@
         <v>15707</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.0483</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>95000</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -10010,10 +9949,10 @@
         <v>15801</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7.3413</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>116000</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -10028,10 +9967,10 @@
         <v>14573</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.381699999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>93000</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -10046,10 +9985,10 @@
         <v>14476</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>88000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.079</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>88000</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -10064,10 +10003,10 @@
         <v>14723</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>82000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.5695</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>82000</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -10084,10 +10023,10 @@
         <v>12376</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6.3025</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>78000</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -10104,10 +10043,10 @@
         <v>7298</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>10.1398</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>74000</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -10124,10 +10063,10 @@
         <v>7298</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>56000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>7.6733</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>56000</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -10144,10 +10083,10 @@
         <v>6775</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.904100000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>40000</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -10164,10 +10103,10 @@
         <v>5949</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.8833</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>35000</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -10184,10 +10123,10 @@
         <v>5660</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3.8869</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22000</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -10204,10 +10143,10 @@
         <v>3816</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4.454899999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>17000</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -10224,10 +10163,10 @@
         <v>1361</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>12200</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8.964</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>12200</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -10244,10 +10183,10 @@
         <v>621</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5917</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.5282</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5917</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -10264,10 +10203,10 @@
         <v>99</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>610</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6.1616</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>610</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -10284,10 +10223,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6.2759</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -10304,10 +10243,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.2759</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -10324,10 +10263,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.0667</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -10342,10 +10281,10 @@
         <v>30</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6.0667</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -10360,10 +10299,10 @@
         <v>30</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6.0667</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -10378,10 +10317,10 @@
         <v>30</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6.0667</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -10396,10 +10335,10 @@
         <v>30</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6.0667</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10414,10 +10353,10 @@
         <v>30</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6.0667</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10432,10 +10371,10 @@
         <v>30</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6.0667</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10450,10 +10389,10 @@
         <v>31</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.871</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10468,10 +10407,10 @@
         <v>31</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5.871</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10486,10 +10425,10 @@
         <v>31</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>182</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5.871</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>182</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -10509,676 +10448,363 @@
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="29" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
       <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="29" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
       <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11488,7 +11114,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11567,17 +11193,14 @@
         <v>5836</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>80133.49000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>13.7316</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>80133.49000000001</v>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="29" t="inlineStr"/>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -11588,17 +11211,14 @@
         <v>4331</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>66846.62</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>15.4345</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>66846.62</v>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -11609,17 +11229,14 @@
         <v>5833</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>66481.52</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11.3981</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>66481.52</v>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -11630,17 +11247,14 @@
         <v>4610</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>50292.63</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10.9095</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>50292.63</v>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -11651,17 +11265,14 @@
         <v>4319</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>48998.58</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11.3439</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>48998.58</v>
-      </c>
-      <c r="F16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -11672,17 +11283,14 @@
         <v>3611</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>40251.34</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>11.1464</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>40251.34</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -11693,17 +11301,14 @@
         <v>3334</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>36699.7</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>11.0072</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>36699.7</v>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -11714,17 +11319,14 @@
         <v>2946</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>29066.69</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>9.865399999999999</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>29066.69</v>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -11735,17 +11337,14 @@
         <v>2031</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>15488.54</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7.6258</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>15488.54</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -11756,17 +11355,14 @@
         <v>1803</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>18031.41</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>10.0004</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>18031.41</v>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -11777,17 +11373,14 @@
         <v>1290</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>10160</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7.876</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>10160</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -11798,17 +11391,14 @@
         <v>885</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7191</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>8.125399999999999</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>7191</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -11819,17 +11409,14 @@
         <v>636</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6704</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>10.5409</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>6704</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -11840,17 +11427,14 @@
         <v>106</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.990600000000001</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>1059</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -11861,17 +11445,14 @@
         <v>190</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1595</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.3947</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>1595</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -11882,17 +11463,14 @@
         <v>62</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>150</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2.4194</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>150</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -11903,17 +11481,14 @@
         <v>14</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>123</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8.7857</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>123</v>
-      </c>
-      <c r="F28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -11924,17 +11499,14 @@
         <v>56</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>264</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4.714300000000001</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>264</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -11945,17 +11517,14 @@
         <v>60</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>260</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4.3333</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>260</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -11966,17 +11535,14 @@
         <v>60</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>280</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4.6667</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>280</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -11987,17 +11553,14 @@
         <v>60</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>295</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4.9167</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>295</v>
-      </c>
-      <c r="F32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -12008,17 +11571,14 @@
         <v>60</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>320</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5.3333</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>320</v>
-      </c>
-      <c r="F33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -12029,17 +11589,14 @@
         <v>60</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>380</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.3333</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>380</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -12050,17 +11607,14 @@
         <v>60</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>285</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4.75</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>285</v>
-      </c>
-      <c r="F35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -12071,17 +11625,14 @@
         <v>110</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>460</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4.1818</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>460</v>
-      </c>
-      <c r="F36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -12092,17 +11643,14 @@
         <v>115</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>390</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3.3913</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>390</v>
-      </c>
-      <c r="F37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -12113,17 +11661,14 @@
         <v>200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>565</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2.825</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>565</v>
-      </c>
-      <c r="F38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -12134,17 +11679,14 @@
         <v>200</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5.5</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -12155,17 +11697,14 @@
         <v>200</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>963</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>4.815</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>963</v>
-      </c>
-      <c r="F40" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -12176,17 +11715,14 @@
         <v>200</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1072</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5.36</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>1072</v>
-      </c>
-      <c r="F41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -12197,17 +11733,14 @@
         <v>25</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="F42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -12217,12 +11750,9 @@
       <c r="C43" s="29" t="inlineStr"/>
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -12232,12 +11762,9 @@
       <c r="C44" s="29" t="inlineStr"/>
       <c r="D44" s="29" t="inlineStr"/>
       <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -12247,12 +11774,9 @@
       <c r="C45" s="29" t="inlineStr"/>
       <c r="D45" s="29" t="inlineStr"/>
       <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -12262,12 +11786,9 @@
       <c r="C46" s="29" t="inlineStr"/>
       <c r="D46" s="29" t="inlineStr"/>
       <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -12277,12 +11798,9 @@
       <c r="C47" s="29" t="inlineStr"/>
       <c r="D47" s="29" t="inlineStr"/>
       <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -12292,12 +11810,9 @@
       <c r="C48" s="29" t="inlineStr"/>
       <c r="D48" s="29" t="inlineStr"/>
       <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -12307,12 +11822,9 @@
       <c r="C49" s="29" t="inlineStr"/>
       <c r="D49" s="29" t="inlineStr"/>
       <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -12322,12 +11834,9 @@
       <c r="C50" s="29" t="inlineStr"/>
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -12337,12 +11846,9 @@
       <c r="C51" s="29" t="inlineStr"/>
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -12352,12 +11858,9 @@
       <c r="C52" s="29" t="inlineStr"/>
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -12367,12 +11870,9 @@
       <c r="C53" s="29" t="inlineStr"/>
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -12382,12 +11882,9 @@
       <c r="C54" s="29" t="inlineStr"/>
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -12397,12 +11894,9 @@
       <c r="C55" s="29" t="inlineStr"/>
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -12412,12 +11906,9 @@
       <c r="C56" s="29" t="inlineStr"/>
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -12427,12 +11918,9 @@
       <c r="C57" s="29" t="inlineStr"/>
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -12442,12 +11930,9 @@
       <c r="C58" s="29" t="inlineStr"/>
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -12457,12 +11942,9 @@
       <c r="C59" s="29" t="inlineStr"/>
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -12472,12 +11954,9 @@
       <c r="C60" s="29" t="inlineStr"/>
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -12487,12 +11966,9 @@
       <c r="C61" s="29" t="inlineStr"/>
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -12502,12 +11978,9 @@
       <c r="C62" s="29" t="inlineStr"/>
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -12517,12 +11990,9 @@
       <c r="C63" s="29" t="inlineStr"/>
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -12532,12 +12002,9 @@
       <c r="C64" s="29" t="inlineStr"/>
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -12547,12 +12014,9 @@
       <c r="C65" s="29" t="inlineStr"/>
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -12562,12 +12026,9 @@
       <c r="C66" s="29" t="inlineStr"/>
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -12577,12 +12038,9 @@
       <c r="C67" s="29" t="inlineStr"/>
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -12592,12 +12050,9 @@
       <c r="C68" s="29" t="inlineStr"/>
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -12606,12 +12061,9 @@
       <c r="C69" s="29" t="inlineStr"/>
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -12620,12 +12072,9 @@
       <c r="C70" s="29" t="inlineStr"/>
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -12634,12 +12083,9 @@
       <c r="C71" s="29" t="inlineStr"/>
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -12648,12 +12094,9 @@
       <c r="C72" s="29" t="inlineStr"/>
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -12662,12 +12105,9 @@
       <c r="C73" s="29" t="inlineStr"/>
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -12676,12 +12116,9 @@
       <c r="C74" s="29" t="inlineStr"/>
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -12689,6 +12126,8 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -12696,6 +12135,8 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
